--- a/pred_ohlcv/54_21/2019-10-28 MITH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 MITH ohlcv.xlsx
@@ -1978,7 +1978,7 @@
         <v>-1284064.4332</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1617837.6856</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1623013.3086</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1623001.3086</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1623011.3086</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1617847.6856</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1920071.3262</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1920076.965</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1826233.926121379</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1826233.926121379</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1835258.863221379</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1823271.917821379</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1823271.917821379</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1823783.109921379</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1389682.208821379</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1389682.208821379</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1453618.477421379</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1453618.477421379</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1571337.196421379</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1517966.746021379</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1521966.746021379</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1534066.746021379</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1555156.746021379</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1472091.031021379</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1440853.391521379</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1891605.806321379</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1891595.806321379</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1932595.806321379</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1932595.806321379</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1926159.842921379</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1984743.430621379</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1978743.430621379</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1954516.953621379</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-2015716.953621379</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-2043441.329121379</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2043429.329121379</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2043429.329121379</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-2043429.329121379</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-2043429.329121379</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-2043449.329121379</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1986249.329121379</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1949049.329121379</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1949049.329121379</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1949069.329121379</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1650885.90812138</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1650895.90812138</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1649889.19672138</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1649889.19672138</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1550792.21792138</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1624935.87982138</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1625643.74042138</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1625643.74042138</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1625643.74042138</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1592866.78122138</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1592866.78122138</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1612866.78122138</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-2117497.97032138</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-2034670.83894338</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-2034670.83894338</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-2034694.83894338</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-1744804.82262816</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-1808046.581928159</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1808046.581928159</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1809046.581928159</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1755306.409228159</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1755306.409228159</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-1755416.409228159</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1755406.409228159</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1755406.409228159</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1755428.409228159</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1755428.409228159</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-1747544.746228159</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1747802.105328159</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-1747802.105328159</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-1747790.105328159</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-1857567.119328159</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-1969850.840128159</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 MITH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 MITH ohlcv.xlsx
@@ -2862,7 +2862,7 @@
         <v>-1584569.1436</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1592284.6713</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1592284.6713</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1599928.2688</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1599928.2688</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1599917.2688</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1617648.2688</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1621923.6856</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1617837.6856</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1623013.3086</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1623001.3086</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1623011.3086</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1617847.6856</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1920071.3262</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1921186.965</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1920076.965</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1826267.556221379</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1826233.926121379</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1826233.926121379</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1826233.926121379</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1826233.926121379</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1835258.863221379</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1823271.917821379</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1823271.917821379</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1823783.109921379</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1823783.109921379</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1808272.991421379</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1808272.991421379</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1808272.991421379</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1792095.478521379</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1792095.478521379</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1819295.478521379</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1814150.638321379</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1814150.638321379</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1814150.638321379</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1814150.638321379</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1811353.537721379</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1811353.537721379</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1811353.537721379</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1566671.287721379</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1389682.208821379</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1389682.208821379</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1389682.208821379</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1453618.477421379</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1453618.477421379</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1571337.196421379</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1517966.746021379</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1521966.746021379</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1534066.746021379</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1555156.746021379</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1472091.031021379</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1440853.391521379</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1891605.806321379</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1891595.806321379</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1932595.806321379</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1932595.806321379</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1926159.842921379</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1984743.430621379</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1978743.430621379</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1954516.953621379</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-2015716.953621379</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-2043441.329121379</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2043429.329121379</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2043429.329121379</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-2043429.329121379</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-2043429.329121379</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-2043449.329121379</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1986249.329121379</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1949049.329121379</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1949049.329121379</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1949069.329121379</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1650885.90812138</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1650895.90812138</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1649889.19672138</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1649889.19672138</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1550792.21792138</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-1624935.87982138</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1625643.74042138</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1625643.74042138</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1625643.74042138</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1592866.78122138</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1592866.78122138</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1592866.78122138</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1592866.78122138</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1662866.78122138</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1612866.78122138</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1622766.78122138</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1622200.78122138</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1613810.78122138</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-2117497.97032138</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-2098467.97032138</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-2034670.83894338</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-2034670.83894338</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-2034694.83894338</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-2213075.860069185</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1621388.393069186</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1692640.046469186</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1715585.429469185</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1715585.429469185</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1646508.145469185</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1690808.145469185</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1674588.914769185</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-1808046.581928159</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1808046.581928159</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1809046.581928159</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1755306.409228159</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1755306.409228159</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-1755416.409228159</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1755406.409228159</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1755406.409228159</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1755428.409228159</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1755428.409228159</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-1747544.746228159</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1747802.105328159</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-1747802.105328159</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-1747790.105328159</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-1838790.105328159</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-1857567.119328159</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
